--- a/placement.xlsx
+++ b/placement.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="자습실" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2층" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3층" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4층" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1학년" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2학년" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3학년" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,22 +483,22 @@
     <row r="1">
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>임유현</t>
+          <t>고견무</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>김지섭</t>
+          <t>안용진</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>최홍서</t>
+          <t>김민준</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>공태영</t>
+          <t>윤진빈</t>
         </is>
       </c>
       <c r="K1" s="3" t="inlineStr">
@@ -508,54 +508,54 @@
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>박하은</t>
+          <t>최지윤</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>김연우</t>
+          <t>신채하</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>유지안</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>구정윤</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>김채윤</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>윤창빈</t>
+          <t>이도윤</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>박규민</t>
+          <t>김은율</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>권성환</t>
+          <t>황승현</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>이도윤</t>
+          <t>장채준</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>윤진빈</t>
+          <t>임지민</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>이도희</t>
+          <t>정해민</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -565,54 +565,54 @@
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>최소윤</t>
+          <t>채시명</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
-          <t>왕서현</t>
+          <t>이수하</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>이수하</t>
+          <t>김채윤</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>박혜인</t>
+          <t>박지윤</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>조준영</t>
+          <t>박규민</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>황승현</t>
+          <t>양성빈</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>이범석</t>
+          <t>조시윤</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>김동률</t>
+          <t>김지섭</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>김동규</t>
+          <t>김정형</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>강태현</t>
+          <t>김해강</t>
         </is>
       </c>
       <c r="K3" s="3" t="inlineStr">
@@ -622,54 +622,54 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>채시명</t>
+          <t>이채원</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>배지영</t>
+          <t>김지인</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>신채하</t>
+          <t>김이정</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>서아림</t>
+          <t>홍수연</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>안용진</t>
+          <t>김동률</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>김동윤</t>
+          <t>이정환</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>강승윤</t>
+          <t>조용원</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>박주영</t>
+          <t>김동희</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>최현빈</t>
+          <t>구윤환</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>정현재</t>
+          <t>이우성</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -679,49 +679,49 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>박소현</t>
+          <t>김유빈</t>
         </is>
       </c>
       <c r="M4" s="1" t="inlineStr">
         <is>
-          <t>홍수연</t>
+          <t>배지영</t>
         </is>
       </c>
       <c r="N4" s="1" t="inlineStr">
         <is>
-          <t>김지인</t>
+          <t>채다원</t>
         </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>김이정</t>
+          <t>서아림</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
+          <t>조준영</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
           <t>송상현</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>장채준</t>
-        </is>
-      </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>강동헌</t>
+          <t>이지후</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>백선범</t>
+          <t>손민준</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>권형진</t>
+          <t>강태현</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -731,165 +731,165 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>이채원</t>
+          <t>최소윤</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>한애리</t>
+          <t>박소현</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr">
         <is>
-          <t>박지윤</t>
+          <t>왕서현</t>
         </is>
       </c>
       <c r="N5" s="1" t="inlineStr">
         <is>
-          <t>채다원</t>
+          <t>김연우</t>
         </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>유지안</t>
+          <t>박혜인</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>문현우</t>
+          <t>류연우</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>정한결</t>
+          <t>김동윤</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>조시윤</t>
+          <t>조은혁</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>권택현</t>
+          <t>박준혁</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>최지윤</t>
+          <t>한애리</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>김유빈</t>
+          <t>박하은</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>손민준</t>
+          <t>임유현</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>김동희</t>
+          <t>김민혁</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>김정형</t>
+          <t>손예율</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>황태현</t>
+          <t>김준형</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>김민진</t>
+          <t>박주혁</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t>이건우</t>
+          <t>오현성</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>김민혁</t>
+          <t>권태윤</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>김동우</t>
+          <t>강동헌</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>오건호</t>
+          <t>김상훈</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>김상훈</t>
+          <t>김나얼</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>황도원</t>
+          <t>한승완</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
-          <t>김성원</t>
+          <t>김주영</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>배준혁</t>
+          <t>김준서</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>김준서</t>
+          <t>신승민</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>양성빈</t>
+          <t>김유겸</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>김유겸</t>
+          <t>신동빈</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>김민준</t>
+          <t>공태영</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>이우성</t>
+          <t>정우석</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>임지민</t>
+          <t>권형진</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>이하겸</t>
+          <t>이건우</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr">
@@ -899,86 +899,86 @@
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
-          <t>김신빈</t>
+          <t>임준표</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>고견무</t>
+          <t>한결</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>권태윤</t>
+          <t>최은석</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>김규원</t>
+          <t>박주영</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>이정환</t>
+          <t>이범석</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>박준혁</t>
+          <t>황태현</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>이도희</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>박준현</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>정해민</t>
-        </is>
-      </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>안장근</t>
+          <t>김신빈</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>한승완</t>
+          <t>정기주</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
-          <t>오현성</t>
+          <t>이동윤</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>박준우</t>
+          <t>윤창빈</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>조은혁</t>
+          <t>강승윤</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>류연우</t>
+          <t>문현우</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>조용원</t>
+          <t>김규원</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>김나얼</t>
+          <t>권택현</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -988,126 +988,126 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>이준우</t>
+          <t>최현빈</t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
+          <t>박병준</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
           <t>정택성</t>
         </is>
       </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>정기주</t>
-        </is>
-      </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
-          <t>박주혁</t>
+          <t>김성원</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>이승찬</t>
+          <t>정한결</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>최은석</t>
+          <t>권성환</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>이지후</t>
+          <t>박준우</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>우현준</t>
+          <t>배준혁</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>손예율</t>
+          <t>오건호</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>김준형</t>
+          <t>이환서</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>이환서</t>
+          <t>정현재</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>신재민</t>
+          <t>조화석</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>임준표</t>
+          <t>김민진</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>이동윤</t>
+          <t>안장근</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>한결</t>
+          <t>우현준</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>신동빈</t>
+          <t>이승찬</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>김은율</t>
+          <t>백선범</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>신승민</t>
+          <t>김동우</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>김해강</t>
+          <t>김동규</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>구윤환</t>
+          <t>이준우</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>정우석</t>
+          <t>최홍서</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>박병준</t>
+          <t>황도원</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>조화석</t>
+          <t>신재민</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
-          <t>김주영</t>
+          <t>이하겸</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>고견무</t>
+          <t>강동헌</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       <c r="A3" s="8" t="n"/>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>김동우</t>
+          <t>신동빈</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>조은혁</t>
+          <t>김민혁</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       <c r="A5" s="8" t="n"/>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>조준영</t>
+          <t>김지섭</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>김유겸</t>
+          <t>손민준</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       <c r="A7" s="8" t="n"/>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>이정환</t>
+          <t>김은율</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>김동희</t>
+          <t>송상현</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       <c r="A9" s="8" t="n"/>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>김민혁</t>
+          <t>조용원</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>박준우</t>
+          <t>최은석</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="A11" s="8" t="n"/>
       <c r="B11" s="9" t="inlineStr">
         <is>
-          <t>박주영</t>
+          <t>임유현</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>신동빈</t>
+          <t>조시윤</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       <c r="A13" s="8" t="n"/>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>류연우</t>
+          <t>김유겸</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B14" s="9" t="inlineStr">
         <is>
-          <t>이지후</t>
+          <t>한결</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       <c r="A15" s="8" t="n"/>
       <c r="B15" s="9" t="inlineStr">
         <is>
-          <t>권태윤</t>
+          <t>김규원</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>김준서</t>
+          <t>이정환</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       <c r="A17" s="8" t="n"/>
       <c r="B17" s="9" t="inlineStr">
         <is>
-          <t>권성환</t>
+          <t>조준영</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>이승찬</t>
+          <t>신승민</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       <c r="A19" s="8" t="n"/>
       <c r="B19" s="9" t="inlineStr">
         <is>
-          <t>김동률</t>
+          <t>김동희</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>이도윤</t>
+          <t>이지후</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       <c r="A21" s="8" t="n"/>
       <c r="B21" s="9" t="inlineStr">
         <is>
-          <t>조시윤</t>
+          <t>정한결</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>강승윤</t>
+          <t>박준우</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="B23" s="9" t="inlineStr">
         <is>
-          <t>문현우</t>
+          <t>김준서</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       <c r="A24" s="8" t="n"/>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>한결</t>
+          <t>백선범</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B25" s="9" t="inlineStr">
         <is>
-          <t>송상현</t>
+          <t>조은혁</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       <c r="A26" s="8" t="n"/>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>황승현</t>
+          <t>김동윤</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B27" s="9" t="inlineStr">
         <is>
-          <t>김지섭</t>
+          <t>권성환</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       <c r="A28" s="8" t="n"/>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>강동헌</t>
+          <t>박주영</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="B29" s="9" t="inlineStr">
         <is>
-          <t>김은율</t>
+          <t>장채준</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       <c r="A30" s="8" t="n"/>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>장채준</t>
+          <t>윤창빈</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B31" s="9" t="inlineStr">
         <is>
-          <t>이범석</t>
+          <t>이승찬</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B33" s="9" t="inlineStr">
         <is>
-          <t>김동윤</t>
+          <t>황승현</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       <c r="A34" s="8" t="n"/>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>윤창빈</t>
+          <t>고견무</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B35" s="9" t="inlineStr">
         <is>
-          <t>김규원</t>
+          <t>류연우</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       <c r="A36" s="8" t="n"/>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>정한결</t>
+          <t>강승윤</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B37" s="9" t="inlineStr">
         <is>
-          <t>백선범</t>
+          <t>양성빈</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       <c r="A38" s="8" t="n"/>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>양성빈</t>
+          <t>우현준</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B39" s="9" t="inlineStr">
         <is>
-          <t>안용진</t>
+          <t>이도윤</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       <c r="A40" s="8" t="n"/>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>신승민</t>
+          <t>박규민</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B41" s="9" t="inlineStr">
         <is>
-          <t>조용원</t>
+          <t>권태윤</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
       <c r="A42" s="8" t="n"/>
       <c r="B42" s="9" t="inlineStr">
         <is>
-          <t>박규민</t>
+          <t>이범석</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="B43" s="9" t="inlineStr">
         <is>
-          <t>우현준</t>
+          <t>문현우</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       <c r="A44" s="8" t="n"/>
       <c r="B44" s="9" t="inlineStr">
         <is>
-          <t>임유현</t>
+          <t>김동률</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B45" s="9" t="inlineStr">
         <is>
-          <t>최은석</t>
+          <t>김동우</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1561,148 @@
       <c r="A46" s="8" t="n"/>
       <c r="B46" s="9" t="inlineStr">
         <is>
-          <t>손민준</t>
+          <t>안용진</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8" t="n">
+        <v>411</v>
+      </c>
+      <c r="B47" s="9" t="inlineStr">
+        <is>
+          <t>김채윤</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="8" t="n"/>
+      <c r="B48" s="9" t="inlineStr">
+        <is>
+          <t>이수하</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8" t="n">
+        <v>412</v>
+      </c>
+      <c r="B49" s="9" t="inlineStr">
+        <is>
+          <t>구정윤</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8" t="n"/>
+      <c r="B50" s="9" t="inlineStr">
+        <is>
+          <t>김이정</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="n">
+        <v>413</v>
+      </c>
+      <c r="B51" s="9" t="inlineStr">
+        <is>
+          <t>홍수연</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="8" t="n"/>
+      <c r="B52" s="9" t="inlineStr">
+        <is>
+          <t>김지인</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="n">
+        <v>414</v>
+      </c>
+      <c r="B53" s="9" t="inlineStr">
+        <is>
+          <t>김연우</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="n"/>
+      <c r="B54" s="9" t="inlineStr">
+        <is>
+          <t>왕서현</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="n">
+        <v>415</v>
+      </c>
+      <c r="B55" s="9" t="inlineStr">
+        <is>
+          <t>신채하</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="n"/>
+      <c r="B56" s="9" t="inlineStr">
+        <is>
+          <t>박혜인</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="n">
+        <v>416</v>
+      </c>
+      <c r="B57" s="9" t="inlineStr">
+        <is>
+          <t>채다원</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="n"/>
+      <c r="B58" s="9" t="inlineStr">
+        <is>
+          <t>유지안</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="n">
+        <v>417</v>
+      </c>
+      <c r="B59" s="9" t="inlineStr">
+        <is>
+          <t>서아림</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="8" t="n"/>
+      <c r="B60" s="9" t="inlineStr">
+        <is>
+          <t>박지윤</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="n">
+        <v>418</v>
+      </c>
+      <c r="B61" s="9" t="inlineStr">
+        <is>
+          <t>배지영</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="29">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -1589,6 +1725,13 @@
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1600,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1626,7 +1769,7 @@
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>정현재</t>
+          <t>이환서</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1777,7 @@
       <c r="A3" s="8" t="n"/>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>김준형</t>
+          <t>공태영</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1787,7 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>권택현</t>
+          <t>정현재</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1795,7 @@
       <c r="A5" s="8" t="n"/>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>이우성</t>
+          <t>최홍서</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1805,7 @@
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>김동규</t>
+          <t>김정형</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1813,7 @@
       <c r="A7" s="8" t="n"/>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>강태현</t>
+          <t>정해민</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1823,7 @@
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>윤진빈</t>
+          <t>김민준</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1831,7 @@
       <c r="A9" s="8" t="n"/>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>손예율</t>
+          <t>이우성</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1841,7 @@
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>권형진</t>
+          <t>임지민</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1849,7 @@
       <c r="A11" s="8" t="n"/>
       <c r="B11" s="9" t="inlineStr">
         <is>
-          <t>김해강</t>
+          <t>정우석</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1859,7 @@
       </c>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>정해민</t>
+          <t>윤진빈</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1867,7 @@
       <c r="A13" s="8" t="n"/>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>김나얼</t>
+          <t>이도희</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1877,7 @@
       </c>
       <c r="B14" s="9" t="inlineStr">
         <is>
-          <t>최현빈</t>
+          <t>이강민</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1885,7 @@
       <c r="A15" s="8" t="n"/>
       <c r="B15" s="9" t="inlineStr">
         <is>
-          <t>황태현</t>
+          <t>이준우</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1895,7 @@
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>최홍서</t>
+          <t>최현빈</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1903,7 @@
       <c r="A17" s="8" t="n"/>
       <c r="B17" s="9" t="inlineStr">
         <is>
-          <t>이강민</t>
+          <t>김해강</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1913,7 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>구윤환</t>
+          <t>황태현</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1921,7 @@
       <c r="A19" s="8" t="n"/>
       <c r="B19" s="9" t="inlineStr">
         <is>
-          <t>이환서</t>
+          <t>강태현</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1931,7 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>김민준</t>
+          <t>김상훈</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1939,7 @@
       <c r="A21" s="8" t="n"/>
       <c r="B21" s="9" t="inlineStr">
         <is>
-          <t>김정형</t>
+          <t>김준형</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1949,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>이준우</t>
+          <t>조수민</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1957,7 @@
       <c r="A23" s="8" t="n"/>
       <c r="B23" s="9" t="inlineStr">
         <is>
-          <t>이도희</t>
+          <t>박준혁</t>
         </is>
       </c>
     </row>
@@ -1824,7 +1967,7 @@
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>공태영</t>
+          <t>권형진</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1975,7 @@
       <c r="A25" s="8" t="n"/>
       <c r="B25" s="9" t="inlineStr">
         <is>
-          <t>조수민</t>
+          <t>김나얼</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1985,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>임지민</t>
+          <t>박준현</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1993,7 @@
       <c r="A27" s="8" t="n"/>
       <c r="B27" s="9" t="inlineStr">
         <is>
-          <t>김상훈</t>
+          <t>권택현</t>
         </is>
       </c>
     </row>
@@ -1860,7 +2003,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>정우석</t>
+          <t>오건호</t>
         </is>
       </c>
     </row>
@@ -1868,7 +2011,7 @@
       <c r="A29" s="8" t="n"/>
       <c r="B29" s="9" t="inlineStr">
         <is>
-          <t>오건호</t>
+          <t>손예율</t>
         </is>
       </c>
     </row>
@@ -1878,7 +2021,7 @@
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>박준현</t>
+          <t>구윤환</t>
         </is>
       </c>
     </row>
@@ -1886,184 +2029,94 @@
       <c r="A31" s="8" t="n"/>
       <c r="B31" s="9" t="inlineStr">
         <is>
-          <t>박준혁</t>
+          <t>김동규</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="n">
-        <v>316</v>
+        <v>419</v>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>이건우</t>
+          <t>박소현</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="n">
-        <v>317</v>
-      </c>
+      <c r="A33" s="8" t="n"/>
       <c r="B33" s="9" t="inlineStr">
         <is>
-          <t>박병준</t>
+          <t>김유빈</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="n"/>
+      <c r="A34" s="8" t="n">
+        <v>420</v>
+      </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>김민진</t>
+          <t>한애리</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="n">
-        <v>318</v>
-      </c>
+      <c r="A35" s="8" t="n"/>
       <c r="B35" s="9" t="inlineStr">
         <is>
-          <t>이동윤</t>
+          <t>최지윤</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="n"/>
+      <c r="A36" s="8" t="n">
+        <v>421</v>
+      </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>김주영</t>
+          <t>채시명</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="n">
-        <v>319</v>
-      </c>
+      <c r="A37" s="8" t="n"/>
       <c r="B37" s="9" t="inlineStr">
         <is>
-          <t>한승완</t>
+          <t>박하은</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="n"/>
+      <c r="A38" s="8" t="n">
+        <v>422</v>
+      </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>장준우</t>
+          <t>조혜민</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="n">
-        <v>320</v>
-      </c>
+      <c r="A39" s="8" t="n"/>
       <c r="B39" s="9" t="inlineStr">
         <is>
-          <t>김신빈</t>
+          <t>최소윤</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="n"/>
+      <c r="A40" s="8" t="n">
+        <v>423</v>
+      </c>
       <c r="B40" s="9" t="inlineStr">
         <is>
-          <t>황도원</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="8" t="n">
-        <v>321</v>
-      </c>
-      <c r="B41" s="9" t="inlineStr">
-        <is>
-          <t>정택성</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="8" t="n"/>
-      <c r="B42" s="9" t="inlineStr">
-        <is>
-          <t>신재민</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="8" t="n">
-        <v>322</v>
-      </c>
-      <c r="B43" s="9" t="inlineStr">
-        <is>
-          <t>조화석</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="8" t="n"/>
-      <c r="B44" s="9" t="inlineStr">
-        <is>
-          <t>이하겸</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="n">
-        <v>323</v>
-      </c>
-      <c r="B45" s="9" t="inlineStr">
-        <is>
-          <t>박주혁</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="8" t="n"/>
-      <c r="B46" s="9" t="inlineStr">
-        <is>
-          <t>김성원</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="8" t="n">
-        <v>324</v>
-      </c>
-      <c r="B47" s="9" t="inlineStr">
-        <is>
-          <t>오현성</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="8" t="n"/>
-      <c r="B48" s="9" t="inlineStr">
-        <is>
-          <t>임준표</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="8" t="n">
-        <v>325</v>
-      </c>
-      <c r="B49" s="9" t="inlineStr">
-        <is>
-          <t>안장근</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="n"/>
-      <c r="B50" s="9" t="inlineStr">
-        <is>
-          <t>정기주</t>
+          <t>이채원</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="19">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -2079,15 +2132,10 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2099,7 +2147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,147 +2169,147 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="n">
-        <v>411</v>
+        <v>316</v>
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>김연우</t>
+          <t>이동윤</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="n"/>
+      <c r="A3" s="8" t="n">
+        <v>317</v>
+      </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>박지윤</t>
+          <t>장준우</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="n">
-        <v>412</v>
-      </c>
+      <c r="A4" s="8" t="n"/>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>유지안</t>
+          <t>김민진</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="n"/>
+      <c r="A5" s="8" t="n">
+        <v>318</v>
+      </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>김채윤</t>
+          <t>정기주</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="n">
-        <v>413</v>
-      </c>
+      <c r="A6" s="8" t="n"/>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>배지영</t>
+          <t>한승완</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="n"/>
+      <c r="A7" s="8" t="n">
+        <v>319</v>
+      </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>김이정</t>
+          <t>김신빈</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="n">
-        <v>414</v>
-      </c>
+      <c r="A8" s="8" t="n"/>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>서아림</t>
+          <t>김주영</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="n"/>
+      <c r="A9" s="8" t="n">
+        <v>320</v>
+      </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>구정윤</t>
+          <t>김성원</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="n">
-        <v>415</v>
-      </c>
+      <c r="A10" s="8" t="n"/>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>왕서현</t>
+          <t>오현성</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="n"/>
+      <c r="A11" s="8" t="n">
+        <v>321</v>
+      </c>
       <c r="B11" s="9" t="inlineStr">
         <is>
-          <t>김지인</t>
+          <t>박주혁</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="n">
-        <v>416</v>
-      </c>
+      <c r="A12" s="8" t="n"/>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>홍수연</t>
+          <t>박병준</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="n"/>
+      <c r="A13" s="8" t="n">
+        <v>322</v>
+      </c>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>신채하</t>
+          <t>이하겸</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="n">
-        <v>417</v>
-      </c>
+      <c r="A14" s="8" t="n"/>
       <c r="B14" s="9" t="inlineStr">
         <is>
-          <t>박혜인</t>
+          <t>이건우</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n"/>
+      <c r="A15" s="8" t="n">
+        <v>323</v>
+      </c>
       <c r="B15" s="9" t="inlineStr">
         <is>
-          <t>채다원</t>
+          <t>황도원</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="n">
-        <v>418</v>
-      </c>
+      <c r="A16" s="8" t="n"/>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>이수하</t>
+          <t>안장근</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="n">
-        <v>419</v>
+        <v>324</v>
       </c>
       <c r="B17" s="9" t="inlineStr">
         <is>
-          <t>박하은</t>
+          <t>정택성</t>
         </is>
       </c>
     </row>
@@ -2269,17 +2317,17 @@
       <c r="A18" s="8" t="n"/>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>최지윤</t>
+          <t>조화석</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="n">
-        <v>420</v>
+        <v>325</v>
       </c>
       <c r="B19" s="9" t="inlineStr">
         <is>
-          <t>김유빈</t>
+          <t>신재민</t>
         </is>
       </c>
     </row>
@@ -2287,97 +2335,50 @@
       <c r="A20" s="8" t="n"/>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>박소현</t>
+          <t>임준표</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B21" s="9" t="inlineStr">
         <is>
-          <t>최소윤</t>
+          <t>김채린</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="n"/>
+      <c r="A22" s="8" t="n">
+        <v>424</v>
+      </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>이채원</t>
+          <t>조은수</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n">
-        <v>422</v>
-      </c>
+      <c r="A23" s="8" t="n"/>
       <c r="B23" s="9" t="inlineStr">
         <is>
-          <t>조혜민</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="8" t="n"/>
-      <c r="B24" s="9" t="inlineStr">
-        <is>
-          <t>채시명</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="n">
-        <v>423</v>
-      </c>
-      <c r="B25" s="9" t="inlineStr">
-        <is>
-          <t>한애리</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="n"/>
-      <c r="B26" s="9" t="inlineStr">
-        <is>
-          <t>김채린</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="8" t="n">
-        <v>424</v>
-      </c>
-      <c r="B27" s="9" t="inlineStr">
-        <is>
           <t>허다혜</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="8" t="n"/>
-      <c r="B28" s="9" t="inlineStr">
-        <is>
-          <t>조은수</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
+  <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
